--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H2">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I2">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J2">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N2">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O2">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P2">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q2">
-        <v>4.72479123325</v>
+        <v>2.826226786698001</v>
       </c>
       <c r="R2">
-        <v>42.52312109925</v>
+        <v>25.43604108028201</v>
       </c>
       <c r="S2">
-        <v>0.00249147040182189</v>
+        <v>0.001868579866130652</v>
       </c>
       <c r="T2">
-        <v>0.002990784527008021</v>
+        <v>0.002120794514267882</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H3">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I3">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J3">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P3">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q3">
-        <v>48.80299679765</v>
+        <v>32.92991978437001</v>
       </c>
       <c r="R3">
-        <v>439.22697117885</v>
+        <v>296.36927805933</v>
       </c>
       <c r="S3">
-        <v>0.02573472901529992</v>
+        <v>0.02177184980058229</v>
       </c>
       <c r="T3">
-        <v>0.03089221099693624</v>
+        <v>0.02471054112241555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H4">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I4">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J4">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N4">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O4">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P4">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q4">
-        <v>0.8854503015433334</v>
+        <v>0.609946895334</v>
       </c>
       <c r="R4">
-        <v>7.969052713889999</v>
+        <v>5.489522058006</v>
       </c>
       <c r="S4">
-        <v>0.0004669144327593941</v>
+        <v>0.0004032707118177208</v>
       </c>
       <c r="T4">
-        <v>0.00056048848098391</v>
+        <v>0.0004577028410131262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H5">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I5">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J5">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N5">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O5">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P5">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q5">
-        <v>21.37003144196</v>
+        <v>12.819050796335</v>
       </c>
       <c r="R5">
-        <v>128.22018865176</v>
+        <v>76.91430477801001</v>
       </c>
       <c r="S5">
-        <v>0.01126881552965947</v>
+        <v>0.008475406267351767</v>
       </c>
       <c r="T5">
-        <v>0.009018128170194374</v>
+        <v>0.006412925467728608</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H6">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I6">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J6">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N6">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O6">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P6">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q6">
-        <v>0.7278700344900001</v>
+        <v>0.359041674572</v>
       </c>
       <c r="R6">
-        <v>6.55083031041</v>
+        <v>3.231375071148</v>
       </c>
       <c r="S6">
-        <v>0.000383819423500221</v>
+        <v>0.0002373829472442695</v>
       </c>
       <c r="T6">
-        <v>0.0004607404495474565</v>
+        <v>0.0002694241019191138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J7">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N7">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O7">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P7">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q7">
-        <v>80.01961983766667</v>
+        <v>70.93763192988001</v>
       </c>
       <c r="R7">
-        <v>720.176578539</v>
+        <v>638.4386873689201</v>
       </c>
       <c r="S7">
-        <v>0.04219583565673224</v>
+        <v>0.04690091800100283</v>
       </c>
       <c r="T7">
-        <v>0.05065227838711037</v>
+        <v>0.05323144673319507</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>35.59684</v>
       </c>
       <c r="I8">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J8">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>208.973595</v>
       </c>
       <c r="O8">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P8">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q8">
         <v>826.5332917155334</v>
@@ -948,10 +948,10 @@
         <v>7438.799625439799</v>
       </c>
       <c r="S8">
-        <v>0.4358463963312868</v>
+        <v>0.5464683424753667</v>
       </c>
       <c r="T8">
-        <v>0.523194117556691</v>
+        <v>0.620228807957083</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J9">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N9">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O9">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P9">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q9">
-        <v>14.99609041263555</v>
+        <v>15.30952454404</v>
       </c>
       <c r="R9">
-        <v>134.96481371372</v>
+        <v>137.78572089636</v>
       </c>
       <c r="S9">
-        <v>0.00790771773008612</v>
+        <v>0.01012200063267004</v>
       </c>
       <c r="T9">
-        <v>0.009492498812666717</v>
+        <v>0.01148823435609132</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>35.59684</v>
       </c>
       <c r="I10">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J10">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N10">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O10">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P10">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q10">
-        <v>361.9253650554134</v>
+        <v>321.7551795067667</v>
       </c>
       <c r="R10">
-        <v>2171.55219033248</v>
+        <v>1930.5310770406</v>
       </c>
       <c r="S10">
-        <v>0.1908499847270251</v>
+        <v>0.2127307168268809</v>
       </c>
       <c r="T10">
-        <v>0.1527320789854089</v>
+        <v>0.1609629307048587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>35.59684</v>
       </c>
       <c r="I11">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J11">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N11">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O11">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P11">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q11">
-        <v>12.32729248252</v>
+        <v>9.011862132986668</v>
       </c>
       <c r="R11">
-        <v>110.94563234268</v>
+        <v>81.10675919687999</v>
       </c>
       <c r="S11">
-        <v>0.006500410883482302</v>
+        <v>0.005958256505564535</v>
       </c>
       <c r="T11">
-        <v>0.007803154424510488</v>
+        <v>0.006762482000712437</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H12">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I12">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J12">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N12">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O12">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P12">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q12">
-        <v>3.083173384683333</v>
+        <v>2.26534328532</v>
       </c>
       <c r="R12">
-        <v>27.74856046215</v>
+        <v>20.38808956788</v>
       </c>
       <c r="S12">
-        <v>0.001625814740250363</v>
+        <v>0.001497747764880814</v>
       </c>
       <c r="T12">
-        <v>0.001951643320894629</v>
+        <v>0.001699908738765206</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H13">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I13">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J13">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>208.973595</v>
       </c>
       <c r="O13">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P13">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q13">
-        <v>31.84650779073666</v>
+        <v>26.3947582058</v>
       </c>
       <c r="R13">
-        <v>286.61857011663</v>
+        <v>237.5528238522</v>
       </c>
       <c r="S13">
-        <v>0.01679325660012972</v>
+        <v>0.01745108141599922</v>
       </c>
       <c r="T13">
-        <v>0.02015878332771532</v>
+        <v>0.01980656990152198</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H14">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I14">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J14">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N14">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O14">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P14">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q14">
-        <v>0.5778026305091111</v>
+        <v>0.48889887756</v>
       </c>
       <c r="R14">
-        <v>5.200223674581999</v>
+        <v>4.40008989804</v>
       </c>
       <c r="S14">
-        <v>0.000304686086842836</v>
+        <v>0.0003232389571432183</v>
       </c>
       <c r="T14">
-        <v>0.0003657480472004898</v>
+        <v>0.0003668686683039945</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H15">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I15">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J15">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N15">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O15">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P15">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q15">
-        <v>13.94506316131467</v>
+        <v>10.2750249139</v>
       </c>
       <c r="R15">
-        <v>83.670378967888</v>
+        <v>61.6501494834</v>
       </c>
       <c r="S15">
-        <v>0.007353491488353747</v>
+        <v>0.006793405528696511</v>
       </c>
       <c r="T15">
-        <v>0.005884800276113089</v>
+        <v>0.00514023776009486</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H16">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I16">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J16">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N16">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O16">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P16">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q16">
-        <v>0.474973264862</v>
+        <v>0.28778746648</v>
       </c>
       <c r="R16">
-        <v>4.274759383758</v>
+        <v>2.59008719832</v>
       </c>
       <c r="S16">
-        <v>0.0002504622474602713</v>
+        <v>0.0001902727226704825</v>
       </c>
       <c r="T16">
-        <v>0.0003006572398998073</v>
+        <v>0.0002159550971133918</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H17">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I17">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J17">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N17">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O17">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P17">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q17">
-        <v>28.6082531574125</v>
+        <v>9.256730004297003</v>
       </c>
       <c r="R17">
-        <v>171.649518944475</v>
+        <v>55.54038002578201</v>
       </c>
       <c r="S17">
-        <v>0.01508566462956554</v>
+        <v>0.006120152633768509</v>
       </c>
       <c r="T17">
-        <v>0.01207264923309123</v>
+        <v>0.004630820217158025</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H18">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I18">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J18">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>208.973595</v>
       </c>
       <c r="O18">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P18">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q18">
-        <v>295.4984502600325</v>
+        <v>107.855242877805</v>
       </c>
       <c r="R18">
-        <v>1772.990701560195</v>
+        <v>647.13145726683</v>
       </c>
       <c r="S18">
-        <v>0.1558218355609096</v>
+        <v>0.07130925807039035</v>
       </c>
       <c r="T18">
-        <v>0.1246999989577165</v>
+        <v>0.05395622849679946</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H19">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I19">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J19">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N19">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O19">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P19">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q19">
-        <v>5.361334529787166</v>
+        <v>1.997756780751</v>
       </c>
       <c r="R19">
-        <v>32.16800717872299</v>
+        <v>11.986540684506</v>
       </c>
       <c r="S19">
-        <v>0.002827131535723373</v>
+        <v>0.001320831051317962</v>
       </c>
       <c r="T19">
-        <v>0.00226247687488077</v>
+        <v>0.0009994082667390972</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H20">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I20">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J20">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N20">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O20">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P20">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q20">
-        <v>129.393922248058</v>
+        <v>41.98618903887751</v>
       </c>
       <c r="R20">
-        <v>517.575688992232</v>
+        <v>167.94475615551</v>
       </c>
       <c r="S20">
-        <v>0.06823182476041929</v>
+        <v>0.02775946638920074</v>
       </c>
       <c r="T20">
-        <v>0.03640272214686482</v>
+        <v>0.01400282050302122</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H21">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I21">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J21">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N21">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O21">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P21">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q21">
-        <v>4.4071979447145</v>
+        <v>1.175967851358</v>
       </c>
       <c r="R21">
-        <v>26.443187668287</v>
+        <v>7.055807108148</v>
       </c>
       <c r="S21">
-        <v>0.002323997546590741</v>
+        <v>0.0007774994776097868</v>
       </c>
       <c r="T21">
-        <v>0.001859832356578288</v>
+        <v>0.0005882958343031071</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H22">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I22">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J22">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N22">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O22">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P22">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q22">
-        <v>0.6716984576500001</v>
+        <v>0.9939722754600001</v>
       </c>
       <c r="R22">
-        <v>6.04528611885</v>
+        <v>8.945750479140001</v>
       </c>
       <c r="S22">
-        <v>0.0003541991050117239</v>
+        <v>0.0006571718130188014</v>
       </c>
       <c r="T22">
-        <v>0.0004251839403649004</v>
+        <v>0.000745874661952663</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H23">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I23">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J23">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>208.973595</v>
       </c>
       <c r="O23">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P23">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q23">
-        <v>6.938062669730001</v>
+        <v>11.5813166349</v>
       </c>
       <c r="R23">
-        <v>62.44256402757</v>
+        <v>104.2318497141</v>
       </c>
       <c r="S23">
-        <v>0.003658569645568722</v>
+        <v>0.007657069556170249</v>
       </c>
       <c r="T23">
-        <v>0.00439178144719151</v>
+        <v>0.008690595143637297</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H24">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I24">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J24">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N24">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O24">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P24">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q24">
-        <v>0.1258797632553333</v>
+        <v>0.21451580118</v>
       </c>
       <c r="R24">
-        <v>1.132917869298</v>
+        <v>1.93064221062</v>
       </c>
       <c r="S24">
-        <v>6.637874328328339E-05</v>
+        <v>0.0001418286419683085</v>
       </c>
       <c r="T24">
-        <v>7.968166837892607E-05</v>
+        <v>0.0001609721967492403</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H25">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I25">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J25">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N25">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O25">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P25">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q25">
-        <v>3.038063789672</v>
+        <v>4.50840716295</v>
       </c>
       <c r="R25">
-        <v>18.228382738032</v>
+        <v>27.0504429777</v>
       </c>
       <c r="S25">
-        <v>0.001602027610775099</v>
+        <v>0.002980765341499741</v>
       </c>
       <c r="T25">
-        <v>0.001282059351147857</v>
+        <v>0.002255399371881588</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H26">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I26">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J26">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N26">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O26">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P26">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q26">
-        <v>0.103477414218</v>
+        <v>0.12627347244</v>
       </c>
       <c r="R26">
-        <v>0.931296727962</v>
+        <v>1.13646125196</v>
       </c>
       <c r="S26">
-        <v>5.456556746188181E-05</v>
+        <v>8.348660105350584E-05</v>
       </c>
       <c r="T26">
-        <v>6.550102090439155E-05</v>
+        <v>9.475534267410672E-05</v>
       </c>
     </row>
   </sheetData>
